--- a/trith_table.xlsx
+++ b/trith_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlmar\Documents\CMSC_301\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895D75C6-AC82-4348-8AAD-DC1A04B92D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67922A3E-829C-4596-9CEC-27C09BC9A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
   <si>
     <t>instr</t>
   </si>
@@ -205,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="000000"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -359,7 +359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -368,33 +368,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -782,7 +782,7 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -881,11 +881,11 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1356,325 +1356,330 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>100011</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17" t="s">
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11">
-        <v>1</v>
-      </c>
-      <c r="M16" s="24" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>101011</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17" t="s">
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1</v>
-      </c>
-      <c r="M17" s="24" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>100</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17" t="s">
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="24" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>101</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22" t="s">
+      <c r="C19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1</v>
-      </c>
-      <c r="M19" s="24" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19">
-        <v>10</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="B20" s="17">
+        <v>10</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>11</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="9">
         <v>11111</v>
       </c>
-      <c r="K21" s="11">
-        <v>1</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="14">
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="12">
         <v>1000</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="H22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="12">
         <v>1001</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="11">
-        <v>1</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="H23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="F24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="12">
         <v>1100</v>
       </c>
-      <c r="M24" s="24"/>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
